--- a/npo_lab12-15/npo_lab12.xlsx
+++ b/npo_lab12-15/npo_lab12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Uni\5_sem\NPO\NPO_labs\npo_lab12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Uni\5_sem\NPO\NPO_labs\npo_lab12-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52DD123-D537-4E7A-B793-AA1B4F6AE2C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2204AE8C-184E-401C-B630-36BBEE347773}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{C0407E27-78B9-4741-ACEF-96D0840B81BA}"/>
   </bookViews>
@@ -922,9 +922,6 @@
     <t>8a</t>
   </si>
   <si>
-    <t>If user enters login which already exists in 'Login' field</t>
-  </si>
-  <si>
     <t xml:space="preserve">   8a1</t>
   </si>
   <si>
@@ -1112,6 +1109,9 @@
   </si>
   <si>
     <t>UC1</t>
+  </si>
+  <si>
+    <t>User enters login which already exists in 'Login' field</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1361,22 +1361,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1396,7 +1387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1435,28 +1425,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,37 +1470,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1817,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0538FE-4372-44CB-A3CA-7641EF9B1D44}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,591 +1817,591 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="4" t="s">
-        <v>360</v>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="4" t="s">
-        <v>360</v>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="4" t="s">
-        <v>360</v>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="4" t="s">
-        <v>360</v>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>360</v>
+      <c r="D8" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>360</v>
+      <c r="D9" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="4" t="s">
-        <v>360</v>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="4" t="s">
-        <v>360</v>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="4" t="s">
-        <v>360</v>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>360</v>
+      <c r="D13" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="4" t="s">
-        <v>360</v>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>360</v>
+      <c r="D15" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="4" t="s">
-        <v>360</v>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>360</v>
+      <c r="D17" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>360</v>
+      <c r="D18" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="4" t="s">
-        <v>360</v>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>360</v>
+      <c r="D20" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="4" t="s">
-        <v>360</v>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="4" t="s">
-        <v>360</v>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>360</v>
+      <c r="D23" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>360</v>
+      <c r="D24" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="4" t="s">
-        <v>360</v>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>360</v>
+      <c r="D26" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="4" t="s">
-        <v>360</v>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>360</v>
+      <c r="D28" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="4" t="s">
-        <v>360</v>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>360</v>
+      <c r="D30" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>360</v>
+      <c r="D31" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="4" t="s">
-        <v>360</v>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="4" t="s">
-        <v>360</v>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>360</v>
+      <c r="D35" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>360</v>
+      <c r="D36" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="4" t="s">
-        <v>360</v>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="4" t="s">
-        <v>360</v>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>360</v>
+      <c r="D39" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="4" t="s">
-        <v>360</v>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>360</v>
+      <c r="D41" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="4" t="s">
-        <v>360</v>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>360</v>
+      <c r="D43" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="4" t="s">
-        <v>360</v>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="4" t="s">
-        <v>360</v>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>360</v>
+      <c r="D47" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="4" t="s">
-        <v>360</v>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="4" t="s">
-        <v>360</v>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="4"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="4" t="s">
-        <v>360</v>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="4" t="s">
-        <v>360</v>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="51" t="s">
-        <v>360</v>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2425,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF91E3D-825C-4690-BDAD-C909022D8E26}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2444,10 +2432,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -2506,10 +2494,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
@@ -2568,10 +2556,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
@@ -2622,10 +2610,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="35"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
@@ -2684,10 +2672,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="35"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
@@ -2730,10 +2718,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="35"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
@@ -2768,10 +2756,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
@@ -2806,10 +2794,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="46"/>
+      <c r="B49" s="35"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
@@ -2844,10 +2832,10 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="46"/>
+      <c r="B54" s="35"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
@@ -2874,10 +2862,10 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="46"/>
+      <c r="B58" s="35"/>
     </row>
     <row r="59" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
@@ -2912,10 +2900,10 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="46"/>
+      <c r="B63" s="35"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
@@ -2935,17 +2923,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2968,31 +2956,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>156</v>
       </c>
       <c r="E3" t="s">
@@ -3003,10 +2991,10 @@
       <c r="A4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>157</v>
       </c>
       <c r="E4" t="s">
@@ -3017,10 +3005,10 @@
       <c r="A5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>15</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>157</v>
       </c>
       <c r="E5" t="s">
@@ -3031,10 +3019,10 @@
       <c r="A6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>16</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>156</v>
       </c>
       <c r="E6" t="s">
@@ -3042,20 +3030,20 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3063,10 +3051,10 @@
       <c r="A9" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>3</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3074,10 +3062,10 @@
       <c r="A10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>10</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3085,28 +3073,28 @@
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>11</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>2</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3114,10 +3102,10 @@
       <c r="A14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>3</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3125,10 +3113,10 @@
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>10</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3136,28 +3124,28 @@
       <c r="A16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>11</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="35"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3165,10 +3153,10 @@
       <c r="A19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>0</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3176,10 +3164,10 @@
       <c r="A20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>320</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3187,28 +3175,28 @@
       <c r="A21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>321</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3216,10 +3204,10 @@
       <c r="A24" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>0</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3227,10 +3215,10 @@
       <c r="A25" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>30</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3238,28 +3226,28 @@
       <c r="A26" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>31</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="35"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3267,10 +3255,10 @@
       <c r="A29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>0</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3278,10 +3266,10 @@
       <c r="A30" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>30</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3289,28 +3277,28 @@
       <c r="A31" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>31</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3318,10 +3306,10 @@
       <c r="A34" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>0</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3329,10 +3317,10 @@
       <c r="A35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>256</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3340,10 +3328,10 @@
       <c r="A36" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>257</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3365,614 +3353,675 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2775E66-81FA-4A40-9D44-A513D6FF8495}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="22" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="42" style="22" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="6" style="21" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="42" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="40" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="40" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="40" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="40" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="40" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="40" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="40" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="40" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="40" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="40" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="40" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="40" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="40" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D30" s="33"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="33"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="40" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="40" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="33"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="40" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="40" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D41" s="33"/>
+      <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="40" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32" t="s">
+      <c r="A43" s="44"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="33"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="40" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="33"/>
+      <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="40" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="40" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="33"/>
+      <c r="D50" s="40"/>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="40" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32" t="s">
+      <c r="A53" s="44"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="33"/>
+      <c r="D53" s="40"/>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="40" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="36" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="D52:D53"/>
     <mergeCell ref="A54:D54"/>
@@ -3989,67 +4038,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4059,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3543EE33-71D4-4324-82C2-EAE6F501A41F}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4070,653 +4058,653 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>6</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>7</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
-        <v>1</v>
-      </c>
-      <c r="B7" s="24" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>8</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>9</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>10</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>11</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>12</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>13</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>14</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>15</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>17</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>18</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>19</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>20</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>21</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>22</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
+        <v>23</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <v>2</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
-        <v>3</v>
-      </c>
-      <c r="B9" s="24" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>24</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
-        <v>4</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <v>5</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>6</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>7</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>8</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>9</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>10</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <v>11</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>12</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>13</v>
-      </c>
-      <c r="B19" s="24" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>25</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
+        <v>26</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <v>27</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
+        <v>28</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
+        <v>29</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>14</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <v>15</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
-        <v>16</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
-        <v>17</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <v>18</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>19</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
-        <v>20</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
-        <v>21</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
-        <v>22</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
-        <v>23</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <v>24</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
-        <v>25</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
-        <v>26</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
-        <v>27</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
-        <v>28</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
-        <v>29</v>
-      </c>
-      <c r="B35" s="29" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
+        <v>30</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
-        <v>30</v>
-      </c>
-      <c r="B36" s="29" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="22">
+        <v>31</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" s="23"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
-        <v>31</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B38" s="24"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="23"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B43" s="24"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B58" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B64" s="24" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B69" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="B69" s="24" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="22" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
+      <c r="B74" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
+      <c r="B76" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="B76" s="24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="B77" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="B77" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="23" t="s">
+      <c r="B78" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="B78" s="24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="23" t="s">
+      <c r="B79" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="B79" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
+      <c r="B80" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="B80" s="24" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="22" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
+      <c r="B81" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="B81" s="24" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="26" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="B82" s="27" t="s">
         <v>337</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
